--- a/shot_calculator/calculator.xlsx
+++ b/shot_calculator/calculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vippe\Documents\Work\Tecbot\java_exercises\tecbot_exercises\shot_calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E92633C-2649-4BFB-959F-5FBD104D42DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146DD22F-4B7E-42E9-AA6A-200A4AD76E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{43F46122-6116-4349-8014-ABC7BFA77E80}"/>
+    <workbookView xWindow="19200" yWindow="2265" windowWidth="8880" windowHeight="11295" xr2:uid="{43F46122-6116-4349-8014-ABC7BFA77E80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>V0x</t>
   </si>
@@ -96,6 +96,15 @@
   </si>
   <si>
     <t>=&gt;</t>
+  </si>
+  <si>
+    <t>rad</t>
+  </si>
+  <si>
+    <t>S = V0t + 1/2 g¨t¨t</t>
+  </si>
+  <si>
+    <t>0 = 0.5gt*t + V0yt - S</t>
   </si>
 </sst>
 </file>
@@ -451,12 +460,12 @@
   <dimension ref="A2:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -464,7 +473,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -475,8 +484,11 @@
         <f>C3*PI()/180</f>
         <v>0.78539816339744828</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -485,7 +497,7 @@
         <v>7.0710678118654755</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -494,7 +506,7 @@
         <v>7.0710678118654746</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -502,7 +514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -516,8 +528,11 @@
       <c r="D7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -531,8 +546,11 @@
       <c r="D8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -543,7 +561,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -555,7 +573,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -567,7 +585,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
